--- a/data/trans_dic/P69$dolorMuscular-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorMuscular-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5543791215733385</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7972299393371041</v>
+        <v>0.7972299393371043</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.5616346659014404</v>
@@ -697,7 +697,7 @@
         <v>0.5701766789398693</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.7476624724756269</v>
+        <v>0.7476624724756268</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.633987556487837</v>
+        <v>0.6239472990621555</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4659676252182913</v>
+        <v>0.4610428142451221</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3997559332370164</v>
+        <v>0.4204380865607906</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6372270438250827</v>
+        <v>0.6422557798213077</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3967899916499828</v>
+        <v>0.4013934464377927</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3521845029333893</v>
+        <v>0.3640036931222129</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.391143603926732</v>
+        <v>0.3769970150018885</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4927341443035968</v>
+        <v>0.5000240538319809</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5962731174245507</v>
+        <v>0.6023707720029173</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4650570301741329</v>
+        <v>0.4631641163873816</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4449565476895516</v>
+        <v>0.4425010433224491</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6353878262970504</v>
+        <v>0.6336999989883381</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8080500515807233</v>
+        <v>0.8048973502764335</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7215826906303374</v>
+        <v>0.7127482355518026</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6760352234159824</v>
+        <v>0.6923153870951767</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.909832070623266</v>
+        <v>0.9148067406592957</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7161899900349268</v>
+        <v>0.7159972276605391</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6657690632659652</v>
+        <v>0.7022693809398727</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8281561324817959</v>
+        <v>0.8337340301094275</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8220436793203822</v>
+        <v>0.8150301324006487</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7568745522976338</v>
+        <v>0.7528814540420575</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6639417087571413</v>
+        <v>0.6633567751780378</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6842275127721849</v>
+        <v>0.6869871614521904</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8478361422465763</v>
+        <v>0.84630393388212</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.6365308753207839</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6431758423200872</v>
+        <v>0.6431758423200873</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.5855596454784633</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4389061953243607</v>
+        <v>0.4397773212506398</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5009425049853172</v>
+        <v>0.502970610656242</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5698097034575564</v>
+        <v>0.5673304931508958</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5769783594637069</v>
+        <v>0.5777625429960593</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4860386340060346</v>
+        <v>0.4944547174827282</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4973039328130732</v>
+        <v>0.4911625708402458</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6552978062703759</v>
+        <v>0.6615349922318369</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5900395503652021</v>
+        <v>0.5842328242190329</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4723024491543645</v>
+        <v>0.4760506663468083</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5203550079323844</v>
+        <v>0.5137923684960485</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.6240592910040034</v>
+        <v>0.620361033493085</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6010974878232125</v>
+        <v>0.5979143333170237</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5604406442699726</v>
+        <v>0.5629023148355712</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6304629906041034</v>
+        <v>0.6372785898885031</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6986303445190201</v>
+        <v>0.6978751977532427</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7033260937282848</v>
+        <v>0.7085560695227392</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6796829970252763</v>
+        <v>0.6717277024745963</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6778458402819245</v>
+        <v>0.66948446667606</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8140633955042865</v>
+        <v>0.8183916704860866</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7016169564899282</v>
+        <v>0.703169481464603</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5723203077586027</v>
+        <v>0.5713326025759801</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6281889961136333</v>
+        <v>0.6218873421989395</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7228852266237896</v>
+        <v>0.7206465922973934</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6861591946008477</v>
+        <v>0.6843265022575155</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.4906184992226833</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5167906724548322</v>
+        <v>0.5167906724548325</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3655155919572129</v>
@@ -957,7 +957,7 @@
         <v>0.5651388889520288</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5157872998268443</v>
+        <v>0.5157872998268445</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3329827027499117</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2137497803145276</v>
+        <v>0.2092910174304627</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2404928837024808</v>
+        <v>0.2581935860459456</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3452080480316836</v>
+        <v>0.3541022737590432</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.385200769117429</v>
+        <v>0.3696189587657071</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2460273685158483</v>
+        <v>0.2496169200804725</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.17340877339017</v>
+        <v>0.1769408623223905</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4460485869190701</v>
+        <v>0.4352897852750479</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4215728222871666</v>
+        <v>0.4251664393215553</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2527285618297565</v>
+        <v>0.254458658602731</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2613274541652314</v>
+        <v>0.2593299843831205</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4294864420467608</v>
+        <v>0.4446782582204961</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.438151646976781</v>
+        <v>0.4375768133693459</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4270832907274963</v>
+        <v>0.4241605558137651</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5511631771473676</v>
+        <v>0.568600031648986</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6134556968224124</v>
+        <v>0.6172492623126181</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6609403242610832</v>
+        <v>0.6463101432815898</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4959775174395878</v>
+        <v>0.486366068565548</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4637568613807274</v>
+        <v>0.4681206480453217</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6831146191273521</v>
+        <v>0.6763584466729258</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6057146541339699</v>
+        <v>0.5965151570755043</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4145497481457417</v>
+        <v>0.42103276780613</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4757884281531961</v>
+        <v>0.4765591086487536</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6162196133995957</v>
+        <v>0.6234653844246298</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5981551063990221</v>
+        <v>0.6024284474805924</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5970073699700595</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6320033332336061</v>
+        <v>0.632003333233606</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5175159643610313</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4716793852738177</v>
+        <v>0.4766290170674969</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4891831135837003</v>
+        <v>0.486592384051956</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5368716060227545</v>
+        <v>0.5405709833171651</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5744322148419702</v>
+        <v>0.5743109793282966</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4503939174513055</v>
+        <v>0.448343887092658</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4418773661470411</v>
+        <v>0.4408228845376214</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6081218770139846</v>
+        <v>0.6054033415427434</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5650492635864248</v>
+        <v>0.5638819376044171</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4771347410317658</v>
+        <v>0.4819339088249364</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4933307647070913</v>
+        <v>0.4945078859112831</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5827930745402837</v>
+        <v>0.583592912524848</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5871153859564587</v>
+        <v>0.5842999896196973</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5700461878482095</v>
+        <v>0.5670018662808933</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5999968389926236</v>
+        <v>0.5964366762542879</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6498751849872402</v>
+        <v>0.6464820260709694</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6793075564146898</v>
+        <v>0.6877117777704027</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5819819474799803</v>
+        <v>0.5807251949632133</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5844516659778844</v>
+        <v>0.5913463157459647</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7354085112642531</v>
+        <v>0.7399347560053867</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6567760533060001</v>
+        <v>0.6560831860821039</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5557714096120838</v>
+        <v>0.5589325105985754</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5772696531336995</v>
+        <v>0.5754427415477742</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6681408664197361</v>
+        <v>0.66719523352736</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6560309854956028</v>
+        <v>0.6595635196142604</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>70033</v>
+        <v>68924</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26888</v>
+        <v>26604</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22219</v>
+        <v>23368</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>22633</v>
+        <v>22812</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14907</v>
+        <v>15080</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13360</v>
+        <v>13808</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7050</v>
+        <v>6795</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11503</v>
+        <v>11674</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>88268</v>
+        <v>89170</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>44477</v>
+        <v>44296</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>32751</v>
+        <v>32570</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>37401</v>
+        <v>37302</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>89260</v>
+        <v>88912</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>41638</v>
+        <v>41128</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>37575</v>
+        <v>38480</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>32315</v>
+        <v>32492</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>26906</v>
+        <v>26899</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>25256</v>
+        <v>26641</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14927</v>
+        <v>15027</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>19191</v>
+        <v>19028</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>112042</v>
+        <v>111451</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>63498</v>
+        <v>63442</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>50363</v>
+        <v>50566</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>49907</v>
+        <v>49817</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>125942</v>
+        <v>126192</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>110560</v>
+        <v>111007</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>130166</v>
+        <v>129599</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>154422</v>
+        <v>154632</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>57630</v>
+        <v>58628</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>64913</v>
+        <v>64111</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>81627</v>
+        <v>82404</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>129488</v>
+        <v>128213</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>191526</v>
+        <v>193046</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>182766</v>
+        <v>180461</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>220294</v>
+        <v>218989</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>292792</v>
+        <v>291242</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>160816</v>
+        <v>161522</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>139145</v>
+        <v>140649</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>159593</v>
+        <v>159421</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>188238</v>
+        <v>189638</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>80591</v>
+        <v>79647</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>88479</v>
+        <v>87388</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>101404</v>
+        <v>101943</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>153974</v>
+        <v>154315</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>232084</v>
+        <v>231684</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>220641</v>
+        <v>218428</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>255180</v>
+        <v>254390</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>334225</v>
+        <v>333333</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15834</v>
+        <v>15503</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11084</v>
+        <v>11900</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21608</v>
+        <v>22165</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>29618</v>
+        <v>28420</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15742</v>
+        <v>15971</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7837</v>
+        <v>7997</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>32877</v>
+        <v>32084</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>41727</v>
+        <v>42083</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>34891</v>
+        <v>35130</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>23855</v>
+        <v>23673</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>58540</v>
+        <v>60611</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>77057</v>
+        <v>76956</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>31636</v>
+        <v>31420</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25403</v>
+        <v>26206</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>38399</v>
+        <v>38636</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>50820</v>
+        <v>49695</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31734</v>
+        <v>31119</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>20960</v>
+        <v>21157</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>50351</v>
+        <v>49853</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>59953</v>
+        <v>59042</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>57232</v>
+        <v>58127</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>43432</v>
+        <v>43503</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>83992</v>
+        <v>84980</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>105197</v>
+        <v>105948</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>222389</v>
+        <v>224723</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>158738</v>
+        <v>157897</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>186086</v>
+        <v>187368</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>218312</v>
+        <v>218266</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>99141</v>
+        <v>98690</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>94412</v>
+        <v>94187</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>131536</v>
+        <v>130948</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>193123</v>
+        <v>192724</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>329989</v>
+        <v>333308</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>265489</v>
+        <v>266123</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>328059</v>
+        <v>328510</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>423797</v>
+        <v>421765</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>268768</v>
+        <v>267332</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>194697</v>
+        <v>193541</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>225254</v>
+        <v>224078</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>258169</v>
+        <v>261363</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>128106</v>
+        <v>127830</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>124875</v>
+        <v>126348</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>159067</v>
+        <v>160046</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>224473</v>
+        <v>224236</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>384374</v>
+        <v>386561</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>310662</v>
+        <v>309679</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>376103</v>
+        <v>375570</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>473542</v>
+        <v>476092</v>
       </c>
     </row>
     <row r="20">
